--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10306"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/pncordone_wpi_edu/Documents/thesis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{603D3AEB-BE32-5149-A31B-09AA244D96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D333181E-5A13-5948-AB28-26651926DA60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C983ECA-46E1-2B46-BA5D-92235B8F77C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="4800" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Web Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="MCL" sheetId="2" r:id="rId2"/>
+    <sheet name="CL LL Amounts" sheetId="3" r:id="rId3"/>
+    <sheet name="Holden et al." sheetId="4" r:id="rId4"/>
+    <sheet name="Screen Size Zooming" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>question_set_id</t>
   </si>
@@ -110,13 +114,162 @@
   </si>
   <si>
     <t>calendar view</t>
+  </si>
+  <si>
+    <t>Lower End</t>
+  </si>
+  <si>
+    <t>Higher End</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Prolific</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Daily Wage Rate
+ w0
+USD/day</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>width_in</t>
+  </si>
+  <si>
+    <t>height_in</t>
+  </si>
+  <si>
+    <t>Absolute size</t>
+  </si>
+  <si>
+    <t>3.3w0</t>
+  </si>
+  <si>
+    <t>16.7w0</t>
+  </si>
+  <si>
+    <t>33.3w0</t>
+  </si>
+  <si>
+    <t>Round to $500, $3,000 and $6,000</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Initial time
+(weeks)</t>
+  </si>
+  <si>
+    <t>Future time
+(months)</t>
+  </si>
+  <si>
+    <t>Future Amount
+(ETB)</t>
+  </si>
+  <si>
+    <t>Task Row 10
+Amount (ETB)</t>
+  </si>
+  <si>
+    <t>MCL Parameters</t>
+  </si>
+  <si>
+    <t>Example CL</t>
+  </si>
+  <si>
+    <t>Time pref.
+Series no.</t>
+  </si>
+  <si>
+    <t>Start point</t>
+  </si>
+  <si>
+    <t>Task no.</t>
+  </si>
+  <si>
+    <t>Receive at far
+future period</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>Receive at near
+future period</t>
+  </si>
+  <si>
+    <t>Amount Earlier</t>
+  </si>
+  <si>
+    <t>Amount Later
+USD</t>
+  </si>
+  <si>
+    <t>Time Earlier
+Weeks</t>
+  </si>
+  <si>
+    <t>Time Later
+Months]</t>
+  </si>
+  <si>
+    <t>Worded
+Titration</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Starts at 250 then adjusts up or down to find the switching point.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Baseline
+1:1 Aspect Ratio
+3" Titration</t>
+  </si>
+  <si>
+    <t>Width In</t>
+  </si>
+  <si>
+    <t>Height In</t>
+  </si>
+  <si>
+    <t>Diagnal In</t>
+  </si>
+  <si>
+    <t>Med Zoom</t>
+  </si>
+  <si>
+    <t>3 in</t>
+  </si>
+  <si>
+    <t>1:1 Aspect Ratio
+6" Titration</t>
+  </si>
+  <si>
+    <t>1:1 Aspect Ratio
+9" Titration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,13 +277,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SFRM1200"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SFRM1200"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,9 +323,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,18 +661,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86262417-1283-894E-BFF0-F5DD2E135B8D}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="14" max="15" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,10 +715,16 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -552,7 +759,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -587,7 +794,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -622,7 +829,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1</v>
       </c>
@@ -657,7 +864,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1</v>
       </c>
@@ -692,7 +899,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1</v>
       </c>
@@ -727,7 +934,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1</v>
       </c>
@@ -762,7 +969,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1</v>
       </c>
@@ -797,7 +1004,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
@@ -832,7 +1039,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1</v>
       </c>
@@ -867,7 +1074,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1</v>
       </c>
@@ -902,7 +1109,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1</v>
       </c>
@@ -937,7 +1144,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>1</v>
       </c>
@@ -972,7 +1179,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1007,7 +1214,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1042,7 +1249,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1077,7 +1284,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1112,7 +1319,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1147,7 +1354,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1182,7 +1389,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1217,7 +1424,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1252,7 +1459,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1287,7 +1494,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1322,7 +1529,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1357,7 +1564,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1392,7 +1599,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1427,7 +1634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1462,7 +1669,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1496,11 +1703,11 @@
       <c r="M29">
         <v>600</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1534,11 +1741,11 @@
       <c r="M30">
         <v>600</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1572,11 +1779,11 @@
       <c r="M31">
         <v>600</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1610,11 +1817,11 @@
       <c r="M32">
         <v>600</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1648,11 +1855,11 @@
       <c r="M33">
         <v>300</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1686,11 +1893,11 @@
       <c r="M34">
         <v>600</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1724,11 +1931,11 @@
       <c r="M35">
         <v>300</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1762,11 +1969,11 @@
       <c r="M36">
         <v>600</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1797,11 +2004,1043 @@
       <c r="M37">
         <v>600</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>400</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>500</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>600</v>
+      </c>
+      <c r="M38">
+        <v>600</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F3C91-0245-C642-8607-0C1863490763}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="51">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="51">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE45FD6-E248-1447-95F1-A5D07360E1EE}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2">
+        <f>AVERAGE(A3:B3)/365</f>
+        <v>35.615068493150687</v>
+      </c>
+      <c r="E3" s="2">
+        <f>3.3*D3</f>
+        <v>117.52972602739726</v>
+      </c>
+      <c r="F3" s="2">
+        <f>16.7*D3</f>
+        <v>594.77164383561649</v>
+      </c>
+      <c r="G3" s="2">
+        <f>33.3*D3</f>
+        <v>1185.9817808219177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>16000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>19999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D13" si="0">AVERAGE(A4:B4)/365</f>
+        <v>49.313698630136983</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E13" si="1">3.3*D4</f>
+        <v>162.73520547945205</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F13" si="2">16.7*D4</f>
+        <v>823.53876712328758</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G13" si="3">33.3*D4</f>
+        <v>1642.1461643835614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>29999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>68.491780821917814</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>226.02287671232878</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>1143.8127397260275</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>2280.7763013698632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>30000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>39999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>95.889041095890406</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>316.43383561643833</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>1601.3469863013697</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>3193.1050684931502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>40000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>49999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>123.28630136986301</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>406.84479452054791</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>2058.8812328767121</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>4105.433835616438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>59999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>150.68356164383562</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>497.25575342465748</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>2516.4154794520546</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>5017.7626027397255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>60000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>69999</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>178.08082191780821</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>587.66671232876706</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>2973.949726027397</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>5930.0913698630129</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>70000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>79999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>205.47808219178083</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>678.0776712328767</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>3431.4839726027399</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>6842.4201369863013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>80000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>89999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>232.87534246575342</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>768.48863013698622</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>3889.0182191780818</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>7754.7489041095878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>90000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>99999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>260.27260273972604</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>858.89958904109585</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>4346.5524657534243</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>8667.077671232877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B13" s="2">
+        <v>149999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>342.46438356164384</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1130.1324657534246</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>5719.155205479452</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>11404.063972602738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>150000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>24999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>25000</v>
+      </c>
+      <c r="B16" s="2">
+        <v>49999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D18" si="4">AVERAGE(A16:B16)/365</f>
+        <v>102.73835616438356</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E18" si="5">3.3*D16</f>
+        <v>339.03657534246571</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F18" si="6">16.7*D16</f>
+        <v>1715.7305479452054</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:G18" si="7">33.3*D16</f>
+        <v>3421.1872602739722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>50000</v>
+      </c>
+      <c r="B17" s="4">
+        <v>74999</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="4"/>
+        <v>171.23150684931508</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="5"/>
+        <v>565.0639726027398</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="6"/>
+        <v>2859.566164383562</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="7"/>
+        <v>5702.0091780821913</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>75000</v>
+      </c>
+      <c r="B18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
+        <v>239.72465753424657</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="5"/>
+        <v>791.09136986301371</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="6"/>
+        <v>4003.4017808219178</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="7"/>
+        <v>7982.8310958904103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1E67AD-5D17-8649-BBCA-56D0D08542BD}">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="68">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="N5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E945CF-9189-764F-9A6E-0EEEF9828B80}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
+        <f>SQRT(A3^2+B3^2)</f>
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/pncordone_wpi_edu/Documents/thesis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{603D3AEB-BE32-5149-A31B-09AA244D96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D333181E-5A13-5948-AB28-26651926DA60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FC9060-B289-A948-A0A8-84F340C105BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="MCL" sheetId="2" r:id="rId1"/>
+    <sheet name="CL LL Amounts" sheetId="3" r:id="rId2"/>
+    <sheet name="Screen Size Zooming" sheetId="5" r:id="rId3"/>
+    <sheet name="Worker Rate" sheetId="7" r:id="rId4"/>
+    <sheet name="Holden et al." sheetId="4" r:id="rId5"/>
+    <sheet name="Web Parameters" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,26 +40,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
-  <si>
-    <t>question_set_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
+  <si>
+    <t>Proposed treatment parameters and estimated cost.</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Present Bias</t>
+  </si>
+  <si>
+    <t>Zooming Parameters</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total
+CL </t>
+  </si>
+  <si>
+    <t>Total Time
+for CL (min)</t>
+  </si>
+  <si>
+    <t>Part.
+Fee</t>
+  </si>
+  <si>
+    <t>MK
+Est.
+Price</t>
+  </si>
+  <si>
+    <t>Prolfiic
+Est.
+Price</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>3" non 1:1</t>
+  </si>
+  <si>
+    <t>6" non 1:1</t>
+  </si>
+  <si>
+    <t>9" non 1:1</t>
+  </si>
+  <si>
+    <t>6"
+time</t>
+  </si>
+  <si>
+    <t>9"
+time</t>
+  </si>
+  <si>
+    <t>6"
+amt</t>
+  </si>
+  <si>
+    <t>9"
+amt</t>
+  </si>
+  <si>
+    <t>Amt.
+Later
+(USD)</t>
+  </si>
+  <si>
+    <t>Time
+Earlier</t>
+  </si>
+  <si>
+    <t>Time
+Later
+(mnts)</t>
+  </si>
+  <si>
+    <t>Time Earlier
+(wkis)</t>
+  </si>
+  <si>
+    <t>Amt Later
+(USD)</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>9:9</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>3:9</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>6:9</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>9:6</t>
+  </si>
+  <si>
+    <t>This treatment is expected to produce the most discounting.</t>
+  </si>
+  <si>
+    <t>The treatments below could be ran to see how visual zooming changes with asset values.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Max number of questions to fins switching point</t>
+  </si>
+  <si>
+    <t>Time per question in CL in seconds</t>
+  </si>
+  <si>
+    <t>Time per CL in seconds</t>
+  </si>
+  <si>
+    <t>Prolific parameters: $0.80 (good, $9.96/hr), filtered on annual household income $40000–$49999, $50000–$59999, $60000–$69999, $70000–$79999, $80000–$89999, $90000–$99999 has 12,963 participants</t>
+  </si>
+  <si>
+    <t>Mechanical Turk parameters: $0.83 (good, $9.96/hr), filtered on annual household income $75,000-$99,999, $50,000-$74,999 has 12,963 participants</t>
+  </si>
+  <si>
+    <t>Number of participants targeted for survey 140</t>
+  </si>
+  <si>
+    <t>Lower End</t>
+  </si>
+  <si>
+    <t>Higher End</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>w0 USD/day</t>
+  </si>
+  <si>
+    <t>3.3w0
+USD</t>
+  </si>
+  <si>
+    <t>16.7w0
+USD</t>
+  </si>
+  <si>
+    <t>33.3w0
+USD</t>
+  </si>
+  <si>
+    <t>Prolific</t>
+  </si>
+  <si>
+    <t>Round to $500, $3,000 and $6,000</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Wdith in.</t>
+  </si>
+  <si>
+    <t>Height in.</t>
+  </si>
+  <si>
+    <t>Aspect Ratio</t>
+  </si>
+  <si>
+    <t>width pixels</t>
+  </si>
+  <si>
+    <t>height pixels</t>
+  </si>
+  <si>
+    <t>Max width pixels</t>
+  </si>
+  <si>
+    <t>Max height pixels</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>Hourly Rate USD</t>
+  </si>
+  <si>
+    <t>Minute Rate USD</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>MCL Parameters</t>
+  </si>
+  <si>
+    <t>Example CL</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Initial time
+(weeks)</t>
+  </si>
+  <si>
+    <t>Future time
+(months)</t>
+  </si>
+  <si>
+    <t>Future Amount
+(ETB)</t>
+  </si>
+  <si>
+    <t>Task Row 10
+Amount (ETB)</t>
+  </si>
+  <si>
+    <t>Time pref.
+Series no.</t>
+  </si>
+  <si>
+    <t>Start point</t>
+  </si>
+  <si>
+    <t>Task no.</t>
+  </si>
+  <si>
+    <t>Receive at far
+future period</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>Receive at near
+future period</t>
   </si>
   <si>
     <t>position</t>
   </si>
   <si>
+    <t>view_type</t>
+  </si>
+  <si>
     <t>amount_earlier</t>
   </si>
   <si>
     <t>time_earlier</t>
   </si>
   <si>
+    <t>date_earlier</t>
+  </si>
+  <si>
     <t>amount_later</t>
   </si>
   <si>
     <t>time_later</t>
   </si>
   <si>
+    <t>date_later</t>
+  </si>
+  <si>
     <t>max_amount</t>
   </si>
   <si>
@@ -67,9 +361,30 @@
     <t>vertical_pixels</t>
   </si>
   <si>
+    <t>left_margin_width_in</t>
+  </si>
+  <si>
+    <t>bottom_margin_height_in</t>
+  </si>
+  <si>
+    <t>graph_width_in</t>
+  </si>
+  <si>
+    <t>graph_height_in</t>
+  </si>
+  <si>
+    <t>width_in</t>
+  </si>
+  <si>
+    <t>height_in</t>
+  </si>
+  <si>
     <t>comment</t>
   </si>
   <si>
+    <t>barchart</t>
+  </si>
+  <si>
     <t>baseline</t>
   </si>
   <si>
@@ -94,29 +409,36 @@
     <t>time to the right</t>
   </si>
   <si>
-    <t>date_earlier</t>
-  </si>
-  <si>
-    <t>date_later</t>
-  </si>
-  <si>
     <t>calendar</t>
   </si>
   <si>
-    <t>view_type</t>
-  </si>
-  <si>
-    <t>barchart</t>
-  </si>
-  <si>
     <t>calendar view</t>
+  </si>
+  <si>
+    <t>Absolute size</t>
+  </si>
+  <si>
+    <t>treatment_id</t>
+  </si>
+  <si>
+    <t>titration</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>earlierAmount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,16 +446,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SFRM1200"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SFRM1200"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -141,13 +503,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,98 +1049,1996 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F3C91-0245-C642-8607-0C1863490763}">
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8" style="15" customWidth="1"/>
+    <col min="2" max="4" width="5.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="15" customWidth="1"/>
+    <col min="9" max="17" width="3.33203125" style="15" customWidth="1"/>
+    <col min="18" max="21" width="3.83203125" style="15" customWidth="1"/>
+    <col min="22" max="23" width="4.83203125" style="15" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" style="17" customWidth="1"/>
+    <col min="25" max="26" width="7.83203125" style="17" customWidth="1"/>
+    <col min="27" max="27" width="33.6640625" style="18" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="43"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+    </row>
+    <row r="4" spans="1:27" ht="60">
+      <c r="A4" s="44"/>
+      <c r="B4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="54"/>
+    </row>
+    <row r="5" spans="1:27" ht="30">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
+        <v>500</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>500</v>
+      </c>
+      <c r="G5" s="23">
+        <v>3</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5" s="23">
+        <v>1</v>
+      </c>
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+      <c r="N5" s="23">
+        <v>1</v>
+      </c>
+      <c r="O5" s="23">
+        <v>1</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>1</v>
+      </c>
+      <c r="R5" s="23">
+        <v>1</v>
+      </c>
+      <c r="S5" s="23">
+        <v>1</v>
+      </c>
+      <c r="T5" s="23">
+        <v>1</v>
+      </c>
+      <c r="U5" s="23">
+        <v>1</v>
+      </c>
+      <c r="V5" s="23">
+        <f>SUM(H5:U5)+1</f>
+        <v>15</v>
+      </c>
+      <c r="W5" s="23">
+        <f>V5*E19/60</f>
+        <v>5</v>
+      </c>
+      <c r="X5" s="25">
+        <f>10/60*W5</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>208.6</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>155</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="30">
+      <c r="A6" s="26">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="26">
+        <v>3</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28">
+        <v>208.6</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>155</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="26">
+        <v>3</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="26">
+        <v>3</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28">
+        <v>208.6</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>155</v>
+      </c>
+      <c r="AA7" s="19"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="26">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27">
+        <v>500</v>
+      </c>
+      <c r="G8" s="26">
+        <v>6</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28">
+        <v>208.6</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>155</v>
+      </c>
+      <c r="AA8" s="19"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="26">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="26">
+        <v>6</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28">
+        <v>208.6</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>155</v>
+      </c>
+      <c r="AA9" s="19"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="26">
+        <v>6</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>6000</v>
+      </c>
+      <c r="G10" s="26">
+        <v>6</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28">
+        <v>208.6</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>155</v>
+      </c>
+      <c r="AA10" s="19"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="26">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
+        <v>500</v>
+      </c>
+      <c r="G11" s="26">
+        <v>12</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28">
+        <v>208.6</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>155</v>
+      </c>
+      <c r="AA11" s="19"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="26">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="26">
+        <v>12</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28">
+        <v>208.6</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>155</v>
+      </c>
+      <c r="AA12" s="19"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="29">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <v>6000</v>
+      </c>
+      <c r="G13" s="29">
+        <v>12</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31">
+        <v>208.6</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>155</v>
+      </c>
+      <c r="AA13" s="19"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34">
+        <f>SUM(Y5:Y13)</f>
+        <v>1877.3999999999996</v>
+      </c>
+      <c r="Z14" s="34">
+        <f>SUM(Z5:Z13)</f>
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="15">
+        <f>E17*E18</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE45FD6-E248-1447-95F1-A5D07360E1EE}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2">
+        <f>AVERAGE(A3:B3)/365</f>
+        <v>35.615068493150687</v>
+      </c>
+      <c r="E3" s="2">
+        <f>3.3*D3</f>
+        <v>117.52972602739726</v>
+      </c>
+      <c r="F3" s="2">
+        <f>16.7*D3</f>
+        <v>594.77164383561649</v>
+      </c>
+      <c r="G3" s="2">
+        <f>33.3*D3</f>
+        <v>1185.9817808219177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>16000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>19999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D13" si="0">AVERAGE(A4:B4)/365</f>
+        <v>49.313698630136983</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E13" si="1">3.3*D4</f>
+        <v>162.73520547945205</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F13" si="2">16.7*D4</f>
+        <v>823.53876712328758</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G13" si="3">33.3*D4</f>
+        <v>1642.1461643835614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>29999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>68.491780821917814</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>226.02287671232878</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>1143.8127397260275</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>2280.7763013698632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>30000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>39999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>95.889041095890406</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>316.43383561643833</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>1601.3469863013697</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>3193.1050684931502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>40000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>49999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>123.28630136986301</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>406.84479452054791</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>2058.8812328767121</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>4105.433835616438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>59999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>150.68356164383562</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>497.25575342465748</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>2516.4154794520546</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>5017.7626027397255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>60000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>69999</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>178.08082191780821</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>587.66671232876706</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>2973.949726027397</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>5930.0913698630129</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>70000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>79999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>205.47808219178083</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>678.0776712328767</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>3431.4839726027399</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>6842.4201369863013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>80000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>89999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>232.87534246575342</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>768.48863013698622</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>3889.0182191780818</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>7754.7489041095878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>90000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>99999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>260.27260273972604</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>858.89958904109585</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>4346.5524657534243</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>8667.077671232877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B13" s="2">
+        <v>149999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>342.46438356164384</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1130.1324657534246</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>5719.155205479452</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>11404.063972602738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>150000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>24999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>25000</v>
+      </c>
+      <c r="B16" s="2">
+        <v>49999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D18" si="4">AVERAGE(A16:B16)/365</f>
+        <v>102.73835616438356</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E18" si="5">3.3*D16</f>
+        <v>339.03657534246571</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F18" si="6">16.7*D16</f>
+        <v>1715.7305479452054</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:G18" si="7">33.3*D16</f>
+        <v>3421.1872602739722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>50000</v>
+      </c>
+      <c r="B17" s="4">
+        <v>74999</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="4"/>
+        <v>171.23150684931508</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="5"/>
+        <v>565.0639726027398</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="6"/>
+        <v>2859.566164383562</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="7"/>
+        <v>5702.0091780821913</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>75000</v>
+      </c>
+      <c r="B18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
+        <v>239.72465753424657</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="5"/>
+        <v>791.09136986301371</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="6"/>
+        <v>4003.4017808219178</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="7"/>
+        <v>7982.8310958904103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E945CF-9189-764F-9A6E-0EEEF9828B80}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <f>I2/3</f>
+        <v>240</v>
+      </c>
+      <c r="E2">
+        <f>I2/3</f>
+        <v>240</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <f>I2/3</f>
+        <v>240</v>
+      </c>
+      <c r="E3">
+        <f>I2/3*2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <f>I2/3</f>
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <f>I2/3*3</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <f>I2/3*2</f>
+        <v>480</v>
+      </c>
+      <c r="E5">
+        <f>I2/3</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <f>I2/3*2</f>
+        <v>480</v>
+      </c>
+      <c r="E6">
+        <f>I2/3*2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <f>I2/3*2</f>
+        <v>480</v>
+      </c>
+      <c r="E7">
+        <f>I2/3*3</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <f>I2/3*3</f>
+        <v>720</v>
+      </c>
+      <c r="E8">
+        <f>I2/3</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <f>I2/3*3</f>
+        <v>720</v>
+      </c>
+      <c r="E9">
+        <f>I2/3*2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <f>I2/3*3</f>
+        <v>720</v>
+      </c>
+      <c r="E10">
+        <f>I2/3*3</f>
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC848A2-46C4-BD4C-AFD2-CF7F6FD4ADEE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="12">
+        <f>B1/60</f>
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="12">
+        <f>C1/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D2" s="12">
+        <f>D1/60</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="12">
+        <f xml:space="preserve"> B2*5</f>
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="12">
+        <f xml:space="preserve"> C2*5</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D3" s="12">
+        <f xml:space="preserve"> D2*5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1E67AD-5D17-8649-BBCA-56D0D08542BD}">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="68">
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="N5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86262417-1283-894E-BFF0-F5DD2E135B8D}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="16" max="16" width="22.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.5</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="J2">
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>1.5</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
       <c r="L2">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>1</v>
       </c>
@@ -560,34 +3046,37 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3">
         <v>0.67</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.67</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>2.67</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>1</v>
       </c>
@@ -595,34 +3084,37 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4">
         <v>1000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1010</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>1010</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>1</v>
       </c>
@@ -630,34 +3122,37 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5">
         <v>0.17</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.67</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.67</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="L5">
-        <v>600</v>
-      </c>
       <c r="M5">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>1</v>
       </c>
@@ -665,34 +3160,37 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>30</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>600</v>
-      </c>
       <c r="M6">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>1</v>
       </c>
@@ -700,34 +3198,37 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7">
         <v>16.670000000000002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>66.67</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>67</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>600</v>
-      </c>
       <c r="M7">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>1</v>
       </c>
@@ -735,34 +3236,37 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8">
         <v>2.5</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>7.5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>600</v>
-      </c>
       <c r="M8">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>1</v>
       </c>
@@ -770,34 +3274,37 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="L9">
-        <v>600</v>
-      </c>
       <c r="M9">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>1</v>
       </c>
@@ -805,34 +3312,37 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10">
         <v>0.25</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.75</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.75</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="L10">
-        <v>600</v>
-      </c>
       <c r="M10">
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>1</v>
       </c>
@@ -840,34 +3350,37 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11">
         <v>0.05</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.15</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.15</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="L11">
-        <v>600</v>
-      </c>
       <c r="M11">
         <v>600</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>1</v>
       </c>
@@ -875,34 +3388,37 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>1</v>
       </c>
@@ -910,34 +3426,37 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
         <v>4000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>5000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="L13">
-        <v>600</v>
-      </c>
       <c r="M13">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>1</v>
       </c>
@@ -945,34 +3464,37 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14">
         <v>0.5</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F14">
         <v>1</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>4</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="L14">
-        <v>600</v>
-      </c>
       <c r="M14">
         <v>600</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>1</v>
       </c>
@@ -980,34 +3502,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15">
         <v>1000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2000</v>
       </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15">
         <v>2000</v>
       </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M15">
         <v>600</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1015,34 +3540,37 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16">
         <v>20</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>22</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>22</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4</v>
       </c>
-      <c r="L16">
-        <v>600</v>
-      </c>
       <c r="M16">
         <v>600</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1050,34 +3578,37 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17">
         <v>200</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>250</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>250</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="L17">
-        <v>600</v>
-      </c>
       <c r="M17">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1085,34 +3616,37 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="F18">
         <v>1</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
       <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>600</v>
-      </c>
       <c r="M18">
         <v>600</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1120,34 +3654,37 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19">
         <v>2000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2100</v>
       </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="K19">
         <v>2100</v>
       </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
       <c r="L19">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>600</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1155,34 +3692,37 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20">
         <v>100</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>105</v>
       </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="K20">
         <v>105</v>
       </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
       <c r="L20">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1190,34 +3730,37 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21">
         <v>1000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2</v>
       </c>
-      <c r="L21">
-        <v>600</v>
-      </c>
       <c r="M21">
         <v>600</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1225,34 +3768,37 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22">
         <v>0.33</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>1.33</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1.33</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4</v>
       </c>
-      <c r="L22">
-        <v>600</v>
-      </c>
       <c r="M22">
         <v>600</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1260,34 +3806,37 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23">
         <v>0.17</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.67</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>0.67</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="L23">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1295,34 +3844,37 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="J24">
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
       <c r="L24">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>600</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1330,34 +3882,37 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25">
         <v>333.33</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1333.33</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="J25">
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="K25">
         <v>1333.33</v>
       </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
       <c r="L25">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <v>600</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1365,34 +3920,37 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26">
         <v>500</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>550</v>
       </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="J26">
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="K26">
         <v>550</v>
       </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
       <c r="L26">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>600</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1400,34 +3958,37 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27">
         <v>500</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>550</v>
       </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="J27">
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="K27">
         <v>550</v>
       </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
       <c r="L27">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <v>600</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1435,34 +3996,37 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28">
         <v>333.33</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1333.33</v>
       </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="J28">
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="K28">
         <v>1333.33</v>
       </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
       <c r="L28">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>600</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1470,37 +4034,40 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29">
         <v>400</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>500</v>
       </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="J29">
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="K29">
         <v>500</v>
       </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
       <c r="L29">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M29">
         <v>600</v>
       </c>
-      <c r="N29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>600</v>
+      </c>
+      <c r="U29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1508,37 +4075,40 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30">
         <v>4</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="J30">
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="K30">
         <v>5</v>
       </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
       <c r="L30">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M30">
         <v>600</v>
       </c>
-      <c r="N30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>600</v>
+      </c>
+      <c r="U30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1546,37 +4116,40 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31">
         <v>400</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>500</v>
       </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="J31">
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="K31">
         <v>500</v>
       </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
       <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
         <v>1200</v>
       </c>
-      <c r="M31">
-        <v>600</v>
-      </c>
-      <c r="N31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>600</v>
+      </c>
+      <c r="U31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1584,37 +4157,40 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32">
         <v>400</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>500</v>
       </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="J32">
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="K32">
         <v>1000</v>
       </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
       <c r="L32">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="M32">
         <v>600</v>
       </c>
-      <c r="N32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>600</v>
+      </c>
+      <c r="U32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1622,37 +4198,40 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33">
         <v>400</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>500</v>
       </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="J33">
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="K33">
         <v>500</v>
       </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
       <c r="L33">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="M33">
         <v>300</v>
       </c>
-      <c r="N33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>300</v>
+      </c>
+      <c r="U33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1660,37 +4239,40 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34">
         <v>400</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="G34">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>500</v>
       </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="J34">
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="K34">
         <v>1000</v>
       </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
       <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
         <v>300</v>
       </c>
-      <c r="M34">
-        <v>600</v>
-      </c>
-      <c r="N34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>600</v>
+      </c>
+      <c r="U34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1698,37 +4280,40 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35">
         <v>400</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>500</v>
       </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="J35">
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="K35">
         <v>500</v>
       </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
       <c r="L35">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <v>300</v>
       </c>
-      <c r="N35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>300</v>
+      </c>
+      <c r="U35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1736,37 +4321,40 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36">
         <v>400</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="G36">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>500</v>
       </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="J36">
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="K36">
         <v>500</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>8</v>
       </c>
-      <c r="L36">
-        <v>600</v>
-      </c>
       <c r="M36">
         <v>600</v>
       </c>
-      <c r="N36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>600</v>
+      </c>
+      <c r="U36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1774,31 +4362,217 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37">
         <v>400</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
         <v>44593</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>500</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>44614</v>
       </c>
-      <c r="L37">
-        <v>600</v>
-      </c>
       <c r="M37">
         <v>600</v>
       </c>
-      <c r="N37" t="s">
-        <v>24</v>
+      <c r="N37">
+        <v>600</v>
+      </c>
+      <c r="U37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38">
+        <v>400</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>500</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>500</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>240</v>
+      </c>
+      <c r="N38">
+        <v>240</v>
+      </c>
+      <c r="O38">
+        <v>0.5</v>
+      </c>
+      <c r="P38">
+        <v>0.5</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:T40" si="0">Q38+O38</f>
+        <v>3.5</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="U38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39">
+        <v>400</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>500</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>500</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>480</v>
+      </c>
+      <c r="N39">
+        <v>480</v>
+      </c>
+      <c r="O39">
+        <v>0.5</v>
+      </c>
+      <c r="P39">
+        <v>0.5</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="U39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40">
+        <v>400</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>500</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>500</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <v>480</v>
+      </c>
+      <c r="N40">
+        <v>480</v>
+      </c>
+      <c r="O40">
+        <v>0.5</v>
+      </c>
+      <c r="P40">
+        <v>0.5</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="U40" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FC9060-B289-A948-A0A8-84F340C105BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F418B5A-71E9-9A4E-87D3-AB5879B5ECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Screen Size Zooming" sheetId="5" r:id="rId3"/>
     <sheet name="Worker Rate" sheetId="7" r:id="rId4"/>
     <sheet name="Holden et al." sheetId="4" r:id="rId5"/>
-    <sheet name="Web Parameters" sheetId="1" r:id="rId6"/>
+    <sheet name="Web Parameters" sheetId="8" r:id="rId6"/>
+    <sheet name="Web Parameters v1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="122">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -428,6 +429,12 @@
   </si>
   <si>
     <t>earlierAmount</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>Read 2001 example, absolute size</t>
   </si>
 </sst>
 </file>
@@ -676,6 +683,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,15 +729,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,15 +742,6 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,105 +1086,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="52" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1203,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1224,16 +1231,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="54"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1734,11 +1741,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1754,6 +1756,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2912,12 +2919,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86262417-1283-894E-BFF0-F5DD2E135B8D}">
-  <dimension ref="A1:U40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3008,6 +3015,344 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>480</v>
+      </c>
+      <c r="N2">
+        <v>480</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="0">Q2+O2</f>
+        <v>6.5</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="1">R2+P2</f>
+        <v>6.5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>480</v>
+      </c>
+      <c r="N3">
+        <v>480</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3" si="2">Q3+O3</f>
+        <v>6.5</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3" si="3">R3+P3</f>
+        <v>6.5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>480</v>
+      </c>
+      <c r="N4">
+        <v>480</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4" si="4">Q4+O4</f>
+        <v>6.5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4" si="5">R4+P4</f>
+        <v>6.5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>480</v>
+      </c>
+      <c r="N5">
+        <v>480</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:T5" si="6">Q5+O5</f>
+        <v>6.5</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86262417-1283-894E-BFF0-F5DD2E135B8D}">
+  <dimension ref="A1:U40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="16" max="16" width="22.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>104</v>
       </c>
       <c r="D2" t="s">

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD1588C-148C-3845-90D0-A1A3491F90C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1839213-F2B2-B648-9D86-48E938E63189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="6" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL" sheetId="2" r:id="rId1"/>
@@ -440,10 +440,10 @@
     <t>interaction</t>
   </si>
   <si>
-    <t>variable</t>
-  </si>
-  <si>
     <t>variable_amount</t>
+  </si>
+  <si>
+    <t>laterAmount</t>
   </si>
 </sst>
 </file>
@@ -692,6 +692,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,15 +738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,15 +751,6 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,105 +1095,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="52" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1240,16 +1240,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="54"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1750,11 +1750,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1770,6 +1765,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2931,9 +2931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D5"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3047,37 +3047,8 @@
       <c r="J2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>1000</v>
-      </c>
       <c r="M2">
         <v>10</v>
-      </c>
-      <c r="N2">
-        <v>480</v>
-      </c>
-      <c r="O2">
-        <v>480</v>
-      </c>
-      <c r="P2">
-        <v>0.5</v>
-      </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>6</v>
-      </c>
-      <c r="S2">
-        <v>6</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2" si="0">R2+P2</f>
-        <v>6.5</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2" si="1">S2+Q2</f>
-        <v>6.5</v>
       </c>
       <c r="V2" t="s">
         <v>121</v>
@@ -3136,11 +3107,11 @@
         <v>6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3" si="2">R3+P3</f>
+        <f t="shared" ref="T3" si="0">R3+P3</f>
         <v>6.5</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3" si="3">S3+Q3</f>
+        <f t="shared" ref="U3" si="1">S3+Q3</f>
         <v>6.5</v>
       </c>
       <c r="V3" t="s">
@@ -3161,7 +3132,7 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -3175,37 +3146,8 @@
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
       <c r="M4">
         <v>10</v>
-      </c>
-      <c r="N4">
-        <v>480</v>
-      </c>
-      <c r="O4">
-        <v>480</v>
-      </c>
-      <c r="P4">
-        <v>0.5</v>
-      </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>6</v>
-      </c>
-      <c r="S4">
-        <v>6</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ref="T4" si="4">R4+P4</f>
-        <v>6.5</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ref="U4" si="5">S4+Q4</f>
-        <v>6.5</v>
       </c>
       <c r="V4" t="s">
         <v>121</v>
@@ -3225,7 +3167,7 @@
         <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -3240,7 +3182,7 @@
         <v>10</v>
       </c>
       <c r="L5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -3264,11 +3206,11 @@
         <v>6</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:U5" si="6">R5+P5</f>
+        <f t="shared" ref="T5:U5" si="2">R5+P5</f>
         <v>6.5</v>
       </c>
       <c r="U5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="V5" t="s">
@@ -3284,7 +3226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86262417-1283-894E-BFF0-F5DD2E135B8D}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -3319,7 +3261,7 @@
         <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
         <v>87</v>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1839213-F2B2-B648-9D86-48E938E63189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1A382-71A9-824F-8C18-84B0DDB1F5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -692,24 +692,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,6 +720,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +742,15 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,105 +1095,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="55" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="50"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1240,16 +1240,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="37"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="54"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1750,6 +1750,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1765,11 +1770,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2929,11 +2929,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3217,6 +3217,26 @@
         <v>121</v>
       </c>
     </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3228,7 +3248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1A382-71A9-824F-8C18-84B0DDB1F5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165E4B5-9643-6C46-90A9-81C768D9093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="125">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -692,6 +692,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,15 +738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,15 +751,6 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,105 +1095,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="52" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1240,16 +1240,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="54"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1750,11 +1750,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1770,6 +1765,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2929,11 +2929,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3126,13 +3126,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -3146,8 +3146,11 @@
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>10</v>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
       </c>
       <c r="V4" t="s">
         <v>121</v>
@@ -3155,13 +3158,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>117</v>
@@ -3179,61 +3182,116 @@
         <v>1000</v>
       </c>
       <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>10</v>
       </c>
-      <c r="N5">
+      <c r="V5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>2000</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
         <v>480</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>480</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="Q5">
+      <c r="Q6">
         <v>0.5</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <v>6</v>
       </c>
-      <c r="S5">
+      <c r="S6">
         <v>6</v>
       </c>
-      <c r="T5">
-        <f t="shared" ref="T5:U5" si="2">R5+P5</f>
+      <c r="T6">
+        <f t="shared" ref="T6:U6" si="2">R6+P6</f>
         <v>6.5</v>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
+    <row r="7" spans="1:22">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>118</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>118</v>
       </c>
-      <c r="F6">
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8">
         <v>500</v>
       </c>
     </row>
@@ -3248,7 +3306,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165E4B5-9643-6C46-90A9-81C768D9093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03951AE6-2D00-6C46-BDB2-1B7DA70AFAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="126">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>laterAmount</t>
+  </si>
+  <si>
+    <t>drag</t>
   </si>
 </sst>
 </file>
@@ -692,24 +695,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,6 +723,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +745,15 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,105 +1098,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="55" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="50"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1215,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1240,16 +1243,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="37"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="54"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1750,6 +1753,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1765,11 +1773,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2929,11 +2932,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3045,7 +3048,7 @@
         <v>1000</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>10</v>
@@ -3056,13 +3059,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>118</v>
@@ -3071,62 +3074,33 @@
         <v>118</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>10</v>
       </c>
-      <c r="N3">
-        <v>480</v>
-      </c>
-      <c r="O3">
-        <v>480</v>
-      </c>
-      <c r="P3">
-        <v>0.5</v>
-      </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3" si="0">R3+P3</f>
-        <v>6.5</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3" si="1">S3+Q3</f>
-        <v>6.5</v>
-      </c>
       <c r="V3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>118</v>
@@ -3135,7 +3109,7 @@
         <v>118</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3146,11 +3120,8 @@
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="T4">
-        <v>6</v>
-      </c>
-      <c r="U4">
-        <v>6</v>
+      <c r="M4">
+        <v>10</v>
       </c>
       <c r="V4" t="s">
         <v>121</v>
@@ -3158,54 +3129,81 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1100</v>
       </c>
       <c r="M5">
         <v>10</v>
       </c>
+      <c r="N5">
+        <v>600</v>
+      </c>
+      <c r="O5">
+        <v>600</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>6.5</v>
+      </c>
+      <c r="U5">
+        <v>6.5</v>
+      </c>
       <c r="V5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -3214,22 +3212,22 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N6">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="O6">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -3244,11 +3242,9 @@
         <v>6</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6:U6" si="2">R6+P6</f>
         <v>6.5</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="V6" t="s">
@@ -3257,13 +3253,13 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>118</v>
@@ -3272,27 +3268,208 @@
         <v>118</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>1100</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>600</v>
+      </c>
+      <c r="O7">
+        <v>600</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3.5</v>
+      </c>
+      <c r="U7">
+        <v>3.5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
         <v>124</v>
       </c>
       <c r="F8">
         <v>500</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>1500</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>600</v>
+      </c>
+      <c r="O8">
+        <v>600</v>
+      </c>
+      <c r="P8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>6.5</v>
+      </c>
+      <c r="U8">
+        <v>6.5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="V9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>1500</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>600</v>
+      </c>
+      <c r="O10">
+        <v>600</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>6.5</v>
+      </c>
+      <c r="U10">
+        <v>6.5</v>
+      </c>
+      <c r="V10" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03951AE6-2D00-6C46-BDB2-1B7DA70AFAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09C172-C1E3-3C43-A627-A267DFB45D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -695,6 +695,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,15 +741,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,15 +754,6 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,105 +1098,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="52" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1243,16 +1243,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="54"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1753,11 +1753,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1773,6 +1768,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2932,11 +2932,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3321,49 +3321,31 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F8">
         <v>500</v>
       </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="H8" s="1">
+        <v>44593</v>
       </c>
       <c r="I8">
         <v>1000</v>
       </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>1500</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
+      <c r="K8" s="1">
+        <v>44614</v>
       </c>
       <c r="N8">
         <v>600</v>
       </c>
       <c r="O8">
         <v>600</v>
-      </c>
-      <c r="P8">
-        <v>0.5</v>
-      </c>
-      <c r="Q8">
-        <v>0.5</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
       </c>
       <c r="T8">
         <v>6.5</v>
@@ -3383,10 +3365,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
         <v>124</v>
@@ -3401,24 +3383,51 @@
         <v>1000</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>1500</v>
       </c>
       <c r="M9">
         <v>10</v>
       </c>
+      <c r="N9">
+        <v>600</v>
+      </c>
+      <c r="O9">
+        <v>600</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>6.5</v>
+      </c>
+      <c r="U9">
+        <v>6.5</v>
+      </c>
       <c r="V9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
         <v>117</v>
@@ -3436,39 +3445,74 @@
         <v>1000</v>
       </c>
       <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>10</v>
       </c>
-      <c r="N10">
-        <v>600</v>
-      </c>
-      <c r="O10">
-        <v>600</v>
-      </c>
-      <c r="P10">
+      <c r="V10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11">
+        <v>500</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>1500</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>600</v>
+      </c>
+      <c r="O11">
+        <v>600</v>
+      </c>
+      <c r="P11">
         <v>0.5</v>
       </c>
-      <c r="Q10">
+      <c r="Q11">
         <v>0.5</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <v>6</v>
       </c>
-      <c r="S10">
+      <c r="S11">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="T11">
         <v>6.5</v>
       </c>
-      <c r="U10">
+      <c r="U11">
         <v>6.5</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3483,7 +3527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09C172-C1E3-3C43-A627-A267DFB45D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A7642-74E7-4E4C-B4DE-A2814402A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL" sheetId="2" r:id="rId1"/>
@@ -2934,9 +2934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3162,10 +3162,10 @@
         <v>10</v>
       </c>
       <c r="N5">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O5">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -3174,16 +3174,16 @@
         <v>0.5</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="U5">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="s">
         <v>121</v>
@@ -3224,10 +3224,10 @@
         <v>15</v>
       </c>
       <c r="N6">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O6">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -3236,16 +3236,16 @@
         <v>0.5</v>
       </c>
       <c r="R6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="U6">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="s">
         <v>121</v>
@@ -3286,10 +3286,10 @@
         <v>15</v>
       </c>
       <c r="N7">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O7">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -3298,16 +3298,16 @@
         <v>0.5</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U7">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="V7" t="s">
         <v>121</v>
@@ -3342,16 +3342,16 @@
         <v>44614</v>
       </c>
       <c r="N8">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O8">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="T8">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="U8">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="s">
         <v>121</v>
@@ -3392,10 +3392,10 @@
         <v>10</v>
       </c>
       <c r="N9">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O9">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -3404,16 +3404,16 @@
         <v>0.5</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="U9">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="s">
         <v>121</v>
@@ -3489,10 +3489,10 @@
         <v>10</v>
       </c>
       <c r="N11">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O11">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -3501,16 +3501,16 @@
         <v>0.5</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="U11">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="V11" t="s">
         <v>121</v>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A7642-74E7-4E4C-B4DE-A2814402A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298852F8-03C0-3E40-BD31-7B6A3A8E3E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL" sheetId="2" r:id="rId1"/>
@@ -695,24 +695,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,6 +723,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,6 +745,15 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,105 +1098,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="55" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="50"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1243,16 +1243,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="37"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="54"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1753,6 +1753,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1768,11 +1773,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2934,9 +2934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3348,10 +3348,10 @@
         <v>100</v>
       </c>
       <c r="T8">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V8" t="s">
         <v>121</v>
@@ -3420,7 +3420,7 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="8">
+      <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298852F8-03C0-3E40-BD31-7B6A3A8E3E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5924ABB0-8B8D-9748-A56C-CD42F20FE35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -695,6 +695,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,15 +741,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,15 +754,6 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,105 +1098,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="52" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1243,16 +1243,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="54"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1753,11 +1753,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1773,6 +1768,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2936,7 +2936,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2944,6 +2944,7 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
     <col min="14" max="14" width="19.5" customWidth="1"/>
     <col min="15" max="15" width="24.5" customWidth="1"/>
     <col min="16" max="16" width="19.1640625" customWidth="1"/>
@@ -3340,6 +3341,9 @@
       </c>
       <c r="K8" s="1">
         <v>44614</v>
+      </c>
+      <c r="L8">
+        <v>1100</v>
       </c>
       <c r="N8">
         <v>100</v>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5924ABB0-8B8D-9748-A56C-CD42F20FE35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B0E69-7167-D34F-A60F-AD84B82B382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="126">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -2932,11 +2932,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3331,13 +3331,13 @@
         <v>118</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H8" s="1">
         <v>44593</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K8" s="1">
         <v>44614</v>
@@ -3363,37 +3363,34 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F9">
         <v>500</v>
       </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="H9" s="1">
+        <v>44593</v>
       </c>
       <c r="I9">
-        <v>1000</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
+        <v>800</v>
+      </c>
+      <c r="K9" s="1">
+        <v>44617</v>
       </c>
       <c r="L9">
-        <v>1500</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
+        <v>1100</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -3401,23 +3398,11 @@
       <c r="O9">
         <v>100</v>
       </c>
-      <c r="P9">
-        <v>0.5</v>
-      </c>
-      <c r="Q9">
-        <v>0.5</v>
-      </c>
-      <c r="R9">
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>8</v>
-      </c>
-      <c r="T9">
-        <v>8.5</v>
-      </c>
-      <c r="U9">
-        <v>8.5</v>
       </c>
       <c r="V9" t="s">
         <v>121</v>
@@ -3425,34 +3410,46 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F10">
-        <v>500</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44593</v>
       </c>
       <c r="I10">
         <v>1000</v>
       </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
+      <c r="K10" s="1">
+        <v>44620</v>
+      </c>
+      <c r="L10">
+        <v>1100</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
       </c>
       <c r="V10" t="s">
         <v>121</v>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3469,7 +3466,7 @@
         <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
         <v>124</v>
@@ -3517,6 +3514,197 @@
         <v>8.5</v>
       </c>
       <c r="V11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44593</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44614</v>
+      </c>
+      <c r="L12">
+        <v>1100</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="U12">
+        <v>8</v>
+      </c>
+      <c r="V12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="V13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>1500</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>8.5</v>
+      </c>
+      <c r="U14">
+        <v>8.5</v>
+      </c>
+      <c r="V14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44593</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>44614</v>
+      </c>
+      <c r="L15">
+        <v>1100</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15" t="s">
         <v>121</v>
       </c>
     </row>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B0E69-7167-D34F-A60F-AD84B82B382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42C723-A09B-7A4E-9DCE-D5E2C6436791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -695,24 +695,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,6 +723,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,6 +745,15 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,105 +1098,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="55" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="50"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1243,16 +1243,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="37"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="54"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1753,6 +1753,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1768,11 +1773,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2936,7 +2936,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3381,13 +3381,13 @@
         <v>500</v>
       </c>
       <c r="H9" s="1">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="I9">
         <v>800</v>
       </c>
       <c r="K9" s="1">
-        <v>44617</v>
+        <v>44632</v>
       </c>
       <c r="L9">
         <v>1100</v>
@@ -3428,13 +3428,13 @@
         <v>300</v>
       </c>
       <c r="H10" s="1">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="I10">
         <v>1000</v>
       </c>
       <c r="K10" s="1">
-        <v>44620</v>
+        <v>44666</v>
       </c>
       <c r="L10">
         <v>1100</v>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42C723-A09B-7A4E-9DCE-D5E2C6436791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A582F45C-D7CE-074B-A2AE-5E72D28CA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -2936,7 +2936,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3054,6 +3054,12 @@
       <c r="M2">
         <v>10</v>
       </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
       <c r="V2" t="s">
         <v>121</v>
       </c>
@@ -3089,6 +3095,12 @@
       <c r="M3">
         <v>10</v>
       </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
       <c r="V3" t="s">
         <v>121</v>
       </c>
@@ -3123,6 +3135,12 @@
       </c>
       <c r="M4">
         <v>10</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
       </c>
       <c r="V4" t="s">
         <v>121</v>
@@ -3594,6 +3612,12 @@
       </c>
       <c r="M13">
         <v>10</v>
+      </c>
+      <c r="T13">
+        <v>8</v>
+      </c>
+      <c r="U13">
+        <v>8</v>
       </c>
       <c r="V13" t="s">
         <v>121</v>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A582F45C-D7CE-074B-A2AE-5E72D28CA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86BBB4F-964B-FD42-B847-871BA33DD309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="2560" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -447,6 +447,42 @@
   </si>
   <si>
     <t>drag</t>
+  </si>
+  <si>
+    <t>Barchart MEL question with no interaction.</t>
+  </si>
+  <si>
+    <t>Worded MEL question with no interaction and Read 2001 example values.</t>
+  </si>
+  <si>
+    <t>Barchart MEL question with drag interaction.</t>
+  </si>
+  <si>
+    <t>Word MEL question with titration interaction.</t>
+  </si>
+  <si>
+    <t>Barchat MEL question with titration interaction.</t>
+  </si>
+  <si>
+    <t>calendarWord</t>
+  </si>
+  <si>
+    <t>calendarBar</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with barchart and titration interaction.</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with barchart and no interaction.</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with word and titration interaction.</t>
+  </si>
+  <si>
+    <t>calendarDrag</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with barchart and drag interaction.</t>
   </si>
 </sst>
 </file>
@@ -2932,11 +2968,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3061,7 +3097,7 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -3102,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -3143,7 +3179,7 @@
         <v>8</v>
       </c>
       <c r="V4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -3205,7 +3241,7 @@
         <v>8.5</v>
       </c>
       <c r="V5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3267,7 +3303,7 @@
         <v>8.5</v>
       </c>
       <c r="V6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -3329,7 +3365,7 @@
         <v>4.5</v>
       </c>
       <c r="V7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -3340,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>118</v>
@@ -3376,7 +3412,7 @@
         <v>8</v>
       </c>
       <c r="V8" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3387,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
         <v>118</v>
@@ -3423,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="V9" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -3434,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
         <v>118</v>
@@ -3470,7 +3506,7 @@
         <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -3532,7 +3568,7 @@
         <v>8.5</v>
       </c>
       <c r="V11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -3620,7 +3656,7 @@
         <v>8</v>
       </c>
       <c r="V13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -3682,7 +3718,7 @@
         <v>8.5</v>
       </c>
       <c r="V14" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -3693,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
         <v>117</v>
@@ -3729,7 +3765,101 @@
         <v>8</v>
       </c>
       <c r="V15" t="s">
-        <v>121</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44593</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>44614</v>
+      </c>
+      <c r="L16">
+        <v>1100</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <v>8</v>
+      </c>
+      <c r="V16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44593</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>44614</v>
+      </c>
+      <c r="L17">
+        <v>1100</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="T17">
+        <v>8</v>
+      </c>
+      <c r="U17">
+        <v>8</v>
+      </c>
+      <c r="V17" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86BBB4F-964B-FD42-B847-871BA33DD309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D7618-4980-BA4E-B83A-66D7A92A0A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="137">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -477,9 +477,6 @@
   </si>
   <si>
     <t>Calendar MEL question with word and titration interaction.</t>
-  </si>
-  <si>
-    <t>calendarDrag</t>
   </si>
   <si>
     <t>Calendar MEL question with barchart and drag interaction.</t>
@@ -731,6 +728,24 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,15 +774,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,15 +787,6 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,105 +1131,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="52" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1251,7 +1248,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1279,16 +1276,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="54"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1789,11 +1786,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1809,6 +1801,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2970,14 +2967,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
@@ -3823,10 +3821,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>124</v>
@@ -3859,7 +3857,7 @@
         <v>8</v>
       </c>
       <c r="V17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D7618-4980-BA4E-B83A-66D7A92A0A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C5E63-AEB3-634C-8090-A1B6683559A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="138">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -470,25 +470,29 @@
     <t>calendarBar</t>
   </si>
   <si>
-    <t>Calendar MEL question with barchart and titration interaction.</t>
-  </si>
-  <si>
-    <t>Calendar MEL question with barchart and no interaction.</t>
-  </si>
-  <si>
-    <t>Calendar MEL question with word and titration interaction.</t>
-  </si>
-  <si>
-    <t>Calendar MEL question with barchart and drag interaction.</t>
+    <t>Calendar MEL question with barchart and drag interaction year calendar view.</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with barchart and drag interaction month view.</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with word and titration interaction month view.</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with barchart and titration interaction month view.</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with barchart and no interaction month view.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -673,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -728,24 +732,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,6 +760,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,6 +783,16 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,105 +1136,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="55" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="50"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1253,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1276,16 +1281,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="37"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="54"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1786,6 +1791,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1801,11 +1811,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2965,11 +2970,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2978,7 +2983,9 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11" style="56"/>
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11" style="56"/>
     <col min="14" max="14" width="19.5" customWidth="1"/>
     <col min="15" max="15" width="24.5" customWidth="1"/>
     <col min="16" max="16" width="19.1640625" customWidth="1"/>
@@ -3011,7 +3018,7 @@
       <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="56" t="s">
         <v>89</v>
       </c>
       <c r="I1" t="s">
@@ -3020,7 +3027,7 @@
       <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="56" t="s">
         <v>92</v>
       </c>
       <c r="L1" t="s">
@@ -3385,13 +3392,13 @@
       <c r="F8">
         <v>300</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="56">
         <v>44593</v>
       </c>
       <c r="I8">
         <v>700</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="56">
         <v>44614</v>
       </c>
       <c r="L8">
@@ -3410,7 +3417,7 @@
         <v>8</v>
       </c>
       <c r="V8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3432,13 +3439,13 @@
       <c r="F9">
         <v>500</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="56">
         <v>44621</v>
       </c>
       <c r="I9">
         <v>800</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="56">
         <v>44632</v>
       </c>
       <c r="L9">
@@ -3457,7 +3464,7 @@
         <v>8</v>
       </c>
       <c r="V9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -3479,13 +3486,13 @@
       <c r="F10">
         <v>300</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="56">
         <v>44652</v>
       </c>
       <c r="I10">
         <v>1000</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="56">
         <v>44666</v>
       </c>
       <c r="L10">
@@ -3504,7 +3511,7 @@
         <v>8</v>
       </c>
       <c r="V10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -3588,13 +3595,13 @@
       <c r="F12">
         <v>500</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="56">
         <v>44593</v>
       </c>
       <c r="I12">
         <v>1000</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="56">
         <v>44614</v>
       </c>
       <c r="L12">
@@ -3738,13 +3745,13 @@
       <c r="F15">
         <v>500</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="56">
         <v>44593</v>
       </c>
       <c r="I15">
         <v>1000</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="56">
         <v>44614</v>
       </c>
       <c r="L15">
@@ -3763,7 +3770,7 @@
         <v>8</v>
       </c>
       <c r="V15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -3785,13 +3792,13 @@
       <c r="F16">
         <v>500</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="56">
         <v>44593</v>
       </c>
       <c r="I16">
         <v>1000</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="56">
         <v>44614</v>
       </c>
       <c r="L16">
@@ -3832,13 +3839,13 @@
       <c r="F17">
         <v>500</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="56">
         <v>44593</v>
       </c>
       <c r="I17">
         <v>1000</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="56">
         <v>44614</v>
       </c>
       <c r="L17">
@@ -3857,7 +3864,54 @@
         <v>8</v>
       </c>
       <c r="V17" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+      <c r="H18" s="56">
+        <v>44593</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="56">
+        <v>44835</v>
+      </c>
+      <c r="L18">
+        <v>1100</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>8</v>
+      </c>
+      <c r="V18" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C5E63-AEB3-634C-8090-A1B6683559A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F017785-8999-584E-9AEE-22B137C78C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -732,6 +732,25 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,15 +779,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,16 +793,6 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,105 +1136,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="43"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="52" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="44"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1281,16 +1281,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="54"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="38"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1791,11 +1791,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1811,6 +1806,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2972,9 +2972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2983,9 +2983,9 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11" style="56"/>
+    <col min="8" max="8" width="11" style="36"/>
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11" style="56"/>
+    <col min="11" max="11" width="11" style="36"/>
     <col min="14" max="14" width="19.5" customWidth="1"/>
     <col min="15" max="15" width="24.5" customWidth="1"/>
     <col min="16" max="16" width="19.1640625" customWidth="1"/>
@@ -3018,7 +3018,7 @@
       <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="36" t="s">
         <v>89</v>
       </c>
       <c r="I1" t="s">
@@ -3027,7 +3027,7 @@
       <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="36" t="s">
         <v>92</v>
       </c>
       <c r="L1" t="s">
@@ -3392,13 +3392,13 @@
       <c r="F8">
         <v>300</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="36">
         <v>44593</v>
       </c>
       <c r="I8">
         <v>700</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="36">
         <v>44614</v>
       </c>
       <c r="L8">
@@ -3439,13 +3439,13 @@
       <c r="F9">
         <v>500</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="36">
         <v>44621</v>
       </c>
       <c r="I9">
         <v>800</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="36">
         <v>44632</v>
       </c>
       <c r="L9">
@@ -3486,13 +3486,13 @@
       <c r="F10">
         <v>300</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="36">
         <v>44652</v>
       </c>
       <c r="I10">
         <v>1000</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="36">
         <v>44666</v>
       </c>
       <c r="L10">
@@ -3595,13 +3595,13 @@
       <c r="F12">
         <v>500</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="36">
         <v>44593</v>
       </c>
       <c r="I12">
         <v>1000</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="36">
         <v>44614</v>
       </c>
       <c r="L12">
@@ -3745,13 +3745,13 @@
       <c r="F15">
         <v>500</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="36">
         <v>44593</v>
       </c>
       <c r="I15">
         <v>1000</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="36">
         <v>44614</v>
       </c>
       <c r="L15">
@@ -3792,13 +3792,13 @@
       <c r="F16">
         <v>500</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="36">
         <v>44593</v>
       </c>
       <c r="I16">
         <v>1000</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="36">
         <v>44614</v>
       </c>
       <c r="L16">
@@ -3839,13 +3839,13 @@
       <c r="F17">
         <v>500</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="36">
         <v>44593</v>
       </c>
       <c r="I17">
         <v>1000</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="36">
         <v>44614</v>
       </c>
       <c r="L17">
@@ -3886,13 +3886,13 @@
       <c r="F18">
         <v>500</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="36">
         <v>44593</v>
       </c>
       <c r="I18">
         <v>1000</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="36">
         <v>44835</v>
       </c>
       <c r="L18">
@@ -3905,7 +3905,7 @@
         <v>100</v>
       </c>
       <c r="T18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U18">
         <v>8</v>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F017785-8999-584E-9AEE-22B137C78C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBD62A-A75C-454D-BD34-68F4CA57332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="139">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>Calendar MEL question with barchart and no interaction month view.</t>
+  </si>
+  <si>
+    <t>Calendar MEL question with word and no interaction month view.</t>
   </si>
 </sst>
 </file>
@@ -2970,11 +2973,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3522,31 +3525,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F11">
-        <v>500</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="H11" s="36">
+        <v>44593</v>
       </c>
       <c r="I11">
-        <v>1000</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
+        <v>700</v>
+      </c>
+      <c r="K11" s="36">
+        <v>44614</v>
       </c>
       <c r="L11">
-        <v>1500</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
+        <v>1100</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -3554,55 +3554,43 @@
       <c r="O11">
         <v>100</v>
       </c>
-      <c r="P11">
-        <v>0.5</v>
-      </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="R11">
+      <c r="T11">
         <v>8</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>8</v>
       </c>
-      <c r="T11">
-        <v>8.5</v>
-      </c>
-      <c r="U11">
-        <v>8.5</v>
-      </c>
       <c r="V11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F12">
         <v>500</v>
       </c>
       <c r="H12" s="36">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="I12">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K12" s="36">
-        <v>44614</v>
+        <v>44632</v>
       </c>
       <c r="L12">
         <v>1100</v>
@@ -3620,39 +3608,45 @@
         <v>8</v>
       </c>
       <c r="V12" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F13">
-        <v>500</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="H13" s="36">
+        <v>44652</v>
       </c>
       <c r="I13">
         <v>1000</v>
       </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
+      <c r="K13" s="36">
+        <v>44666</v>
+      </c>
+      <c r="L13">
+        <v>1100</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
       </c>
       <c r="T13">
         <v>8</v>
@@ -3661,12 +3655,12 @@
         <v>8</v>
       </c>
       <c r="V13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3675,7 +3669,7 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
         <v>124</v>
@@ -3723,21 +3717,21 @@
         <v>8.5</v>
       </c>
       <c r="V14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
         <v>124</v>
@@ -3770,18 +3764,18 @@
         <v>8</v>
       </c>
       <c r="V15" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -3792,23 +3786,17 @@
       <c r="F16">
         <v>500</v>
       </c>
-      <c r="H16" s="36">
-        <v>44593</v>
+      <c r="G16">
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1000</v>
       </c>
-      <c r="K16" s="36">
-        <v>44614</v>
-      </c>
-      <c r="L16">
-        <v>1100</v>
-      </c>
-      <c r="N16">
-        <v>100</v>
-      </c>
-      <c r="O16">
-        <v>100</v>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
       </c>
       <c r="T16">
         <v>8</v>
@@ -3817,21 +3805,21 @@
         <v>8</v>
       </c>
       <c r="V16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
         <v>124</v>
@@ -3839,17 +3827,20 @@
       <c r="F17">
         <v>500</v>
       </c>
-      <c r="H17" s="36">
-        <v>44593</v>
+      <c r="G17">
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1000</v>
       </c>
-      <c r="K17" s="36">
-        <v>44614</v>
+      <c r="J17">
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>1100</v>
+        <v>1500</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
       </c>
       <c r="N17">
         <v>100</v>
@@ -3857,25 +3848,37 @@
       <c r="O17">
         <v>100</v>
       </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>8</v>
+      </c>
+      <c r="S17">
+        <v>8</v>
+      </c>
       <c r="T17">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U17">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -3893,7 +3896,7 @@
         <v>1000</v>
       </c>
       <c r="K18" s="36">
-        <v>44835</v>
+        <v>44614</v>
       </c>
       <c r="L18">
         <v>1100</v>
@@ -3905,12 +3908,153 @@
         <v>100</v>
       </c>
       <c r="T18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <v>8</v>
       </c>
       <c r="V18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+      <c r="H19" s="36">
+        <v>44593</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="36">
+        <v>44614</v>
+      </c>
+      <c r="L19">
+        <v>1100</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="H20" s="36">
+        <v>44593</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="36">
+        <v>44614</v>
+      </c>
+      <c r="L20">
+        <v>1100</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <v>8</v>
+      </c>
+      <c r="U20">
+        <v>8</v>
+      </c>
+      <c r="V20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21">
+        <v>500</v>
+      </c>
+      <c r="H21" s="36">
+        <v>44593</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="36">
+        <v>44835</v>
+      </c>
+      <c r="L21">
+        <v>1100</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>8</v>
+      </c>
+      <c r="V21" t="s">
         <v>133</v>
       </c>
     </row>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBD62A-A75C-454D-BD34-68F4CA57332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0592B-1D36-C041-AFFC-142F9A5BC05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="140">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -452,40 +452,43 @@
     <t>Barchart MEL question with no interaction.</t>
   </si>
   <si>
-    <t>Worded MEL question with no interaction and Read 2001 example values.</t>
-  </si>
-  <si>
-    <t>Barchart MEL question with drag interaction.</t>
-  </si>
-  <si>
-    <t>Word MEL question with titration interaction.</t>
-  </si>
-  <si>
-    <t>Barchat MEL question with titration interaction.</t>
-  </si>
-  <si>
     <t>calendarWord</t>
   </si>
   <si>
     <t>calendarBar</t>
   </si>
   <si>
-    <t>Calendar MEL question with barchart and drag interaction year calendar view.</t>
-  </si>
-  <si>
-    <t>Calendar MEL question with barchart and drag interaction month view.</t>
-  </si>
-  <si>
-    <t>Calendar MEL question with word and titration interaction month view.</t>
-  </si>
-  <si>
-    <t>Calendar MEL question with barchart and titration interaction month view.</t>
-  </si>
-  <si>
-    <t>Calendar MEL question with barchart and no interaction month view.</t>
-  </si>
-  <si>
-    <t>Calendar MEL question with word and no interaction month view.</t>
+    <t>Calendar year view with word and titration interaction.</t>
+  </si>
+  <si>
+    <t>Calendar month view with barchart and drag interaction.</t>
+  </si>
+  <si>
+    <t>Calendar month view with word and titration interaction.</t>
+  </si>
+  <si>
+    <t>Calendar month view with barchart and titration interaction.</t>
+  </si>
+  <si>
+    <t>Barchat with titration interaction.</t>
+  </si>
+  <si>
+    <t>Word with titration interaction.</t>
+  </si>
+  <si>
+    <t>Barchart with drag interaction.</t>
+  </si>
+  <si>
+    <t>Calendar month view with word and no interaction.</t>
+  </si>
+  <si>
+    <t>Calendar month view with barchart and no interaction.</t>
+  </si>
+  <si>
+    <t>Barchart with no interaction.</t>
+  </si>
+  <si>
+    <t>Worded with no interaction and Read 2001 example values.</t>
   </si>
 </sst>
 </file>
@@ -736,24 +739,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,6 +767,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,6 +789,15 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,105 +1142,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="40" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="40" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="50"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="52" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="51"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1256,7 +1259,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="42"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1284,16 +1287,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="38"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="55"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1794,6 +1797,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1809,11 +1817,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2975,9 +2978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3105,7 +3108,7 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -3146,7 +3149,7 @@
         <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -3187,7 +3190,7 @@
         <v>8</v>
       </c>
       <c r="V4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -3311,7 +3314,7 @@
         <v>8.5</v>
       </c>
       <c r="V6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -3373,7 +3376,7 @@
         <v>4.5</v>
       </c>
       <c r="V7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -3384,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
         <v>118</v>
@@ -3431,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
         <v>118</v>
@@ -3478,7 +3481,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
         <v>118</v>
@@ -3525,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
         <v>118</v>
@@ -3561,7 +3564,7 @@
         <v>8</v>
       </c>
       <c r="V11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -3572,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
         <v>118</v>
@@ -3608,7 +3611,7 @@
         <v>8</v>
       </c>
       <c r="V12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -3619,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
         <v>118</v>
@@ -3655,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="V13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -3717,7 +3720,7 @@
         <v>8.5</v>
       </c>
       <c r="V14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -3805,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="V16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -3867,7 +3870,7 @@
         <v>8.5</v>
       </c>
       <c r="V17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -3878,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -3914,7 +3917,7 @@
         <v>8</v>
       </c>
       <c r="V18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -3925,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
         <v>117</v>
@@ -3961,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="V19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -3972,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
         <v>125</v>
@@ -4008,7 +4011,7 @@
         <v>8</v>
       </c>
       <c r="V20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -4019,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>117</v>
@@ -4055,7 +4058,7 @@
         <v>8</v>
       </c>
       <c r="V21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0592B-1D36-C041-AFFC-142F9A5BC05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65FDD75-87D4-B741-80D8-667E6D418A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="141">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Worded with no interaction and Read 2001 example values.</t>
+  </si>
+  <si>
+    <t>Calendar year view with barchart and drag interaction.</t>
   </si>
 </sst>
 </file>
@@ -739,6 +742,24 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,15 +788,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,15 +801,6 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,105 +1145,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="46" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="46" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="54" t="s">
+      <c r="W2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="54" t="s">
+      <c r="Y2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="54" t="s">
+      <c r="Z2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="54" t="s">
+      <c r="AA2" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="44"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="49" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="45"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1262,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1287,16 +1290,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="55"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="38"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1797,11 +1800,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1817,6 +1815,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2976,11 +2979,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4059,6 +4062,53 @@
       </c>
       <c r="V21" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22">
+        <v>500</v>
+      </c>
+      <c r="H22" s="36">
+        <v>44593</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="36">
+        <v>44835</v>
+      </c>
+      <c r="L22">
+        <v>1100</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>8</v>
+      </c>
+      <c r="V22" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65FDD75-87D4-B741-80D8-667E6D418A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0FA6DD-12B5-414B-8F99-BE907B0189D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="142">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>Calendar year view with barchart and drag interaction.</t>
+  </si>
+  <si>
+    <t>Calendar year view with word and no interaction.</t>
   </si>
 </sst>
 </file>
@@ -742,24 +745,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,6 +773,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +795,15 @@
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,105 +1148,105 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="40" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="40" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="37" t="s">
+      <c r="W2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="50"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="52" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
     </row>
     <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="51"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="42"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1290,16 +1293,16 @@
       <c r="Q4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="38"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="55"/>
     </row>
     <row r="5" spans="1:27" ht="30">
       <c r="A5" s="23">
@@ -1800,6 +1803,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="V2:V4"/>
@@ -1815,11 +1823,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2979,11 +2982,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4109,6 +4112,147 @@
       </c>
       <c r="V22" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+      <c r="H23" s="36">
+        <v>44593</v>
+      </c>
+      <c r="I23">
+        <v>700</v>
+      </c>
+      <c r="K23" s="36">
+        <v>44703</v>
+      </c>
+      <c r="L23">
+        <v>1100</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+      <c r="U23">
+        <v>8</v>
+      </c>
+      <c r="V23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24">
+        <v>500</v>
+      </c>
+      <c r="H24" s="36">
+        <v>44621</v>
+      </c>
+      <c r="I24">
+        <v>800</v>
+      </c>
+      <c r="K24" s="36">
+        <v>44724</v>
+      </c>
+      <c r="L24">
+        <v>1100</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <v>8</v>
+      </c>
+      <c r="V24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="H25" s="36">
+        <v>44652</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="36">
+        <v>44757</v>
+      </c>
+      <c r="L25">
+        <v>1100</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+      <c r="U25">
+        <v>8</v>
+      </c>
+      <c r="V25" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MCL questions.xlsx
+++ b/doc/MCL questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/vizsurvey/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0FA6DD-12B5-414B-8F99-BE907B0189D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48F8932-6DB6-1D41-AC52-602BFBACFA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
+    <workbookView xWindow="1280" yWindow="540" windowWidth="35840" windowHeight="21060" activeTab="5" xr2:uid="{7432EDC4-6243-2543-BF06-3FCD944023A9}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="143">
   <si>
     <t>Proposed treatment parameters and estimated cost.</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Calendar year view with word and no interaction.</t>
+  </si>
+  <si>
+    <t>Calendar year view with bar and no interaction.</t>
   </si>
 </sst>
 </file>
@@ -2982,11 +2985,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366C34-5A3E-9A45-83C3-0286FA157D98}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4253,6 +4256,147 @@
       </c>
       <c r="V25" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="H26" s="36">
+        <v>44593</v>
+      </c>
+      <c r="I26">
+        <v>700</v>
+      </c>
+      <c r="K26" s="36">
+        <v>44703</v>
+      </c>
+      <c r="L26">
+        <v>1100</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26">
+        <v>8</v>
+      </c>
+      <c r="V26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+      <c r="H27" s="36">
+        <v>44621</v>
+      </c>
+      <c r="I27">
+        <v>800</v>
+      </c>
+      <c r="K27" s="36">
+        <v>44724</v>
+      </c>
+      <c r="L27">
+        <v>1100</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+      <c r="H28" s="36">
+        <v>44652</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="36">
+        <v>44757</v>
+      </c>
+      <c r="L28">
+        <v>1100</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>8</v>
+      </c>
+      <c r="V28" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
